--- a/SIS/Input and Constants/sis_in_bo.xlsx
+++ b/SIS/Input and Constants/sis_in_bo.xlsx
@@ -1,32 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3C7AC0-B97A-4EA3-8337-12FD68EF88B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Sr_No</t>
+  </si>
+  <si>
+    <t>Right_Ascension</t>
+  </si>
+  <si>
+    <t>Declination</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Angular_velocity_1</t>
+  </si>
+  <si>
+    <t>Angular_velocity_2</t>
+  </si>
+  <si>
+    <t>Angular_velocity_3</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Orion Constellation</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Canopus</t>
+  </si>
+  <si>
+    <t>Rigil Kentaurus</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Capella</t>
+  </si>
+  <si>
+    <t>Rigel</t>
+  </si>
+  <si>
+    <t>Procyon</t>
+  </si>
+  <si>
+    <t>Achernar</t>
+  </si>
+  <si>
+    <t>Betelguese</t>
+  </si>
+  <si>
+    <t>Hadar</t>
+  </si>
+  <si>
+    <t>Altair</t>
+  </si>
+  <si>
+    <t>Aldebaran</t>
+  </si>
+  <si>
+    <t>Spica</t>
+  </si>
+  <si>
+    <t>Pollux</t>
+  </si>
+  <si>
+    <t>Fomulhaut</t>
+  </si>
+  <si>
+    <t>Acrux</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,14 +145,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,7 +184,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +196,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +463,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>84.053389170000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.2019200000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>101.2871554</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-16.71612</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1.44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>95.987957919999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-52.695659999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>219.9020625</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-60.833970000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>279.234735</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38.783692000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>79.172329579999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45.997990999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>78.634467920000006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-8.2016410000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>114.8254929</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.2249930999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24.428527500000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-57.236759999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>88.792938750000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.4070628000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>210.95585209999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-60.373040000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>297.69582919999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.8683218999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>68.980161249999995</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16.509301000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>201.2982471</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-11.16132</v>
+      </c>
+      <c r="D15" s="1">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>247.35192040000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-26.431999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>116.32896</v>
+      </c>
+      <c r="C17" s="1">
+        <v>28.026198999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>186.6495658</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-63.099089999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>